--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.9962358646221</v>
+        <v>13.34512433333333</v>
       </c>
       <c r="H2">
-        <v>23.9962358646221</v>
+        <v>40.035373</v>
       </c>
       <c r="I2">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="J2">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N2">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q2">
-        <v>5.322441902497297</v>
+        <v>3.090374925617778</v>
       </c>
       <c r="R2">
-        <v>5.322441902497297</v>
+        <v>27.81337433056</v>
       </c>
       <c r="S2">
-        <v>0.1098774876704544</v>
+        <v>0.03788819476920359</v>
       </c>
       <c r="T2">
-        <v>0.1098774876704544</v>
+        <v>0.0378881947692036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.9962358646221</v>
+        <v>13.34512433333333</v>
       </c>
       <c r="H3">
-        <v>23.9962358646221</v>
+        <v>40.035373</v>
       </c>
       <c r="I3">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="J3">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N3">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q3">
-        <v>13.81954133590801</v>
+        <v>9.609761755186446</v>
       </c>
       <c r="R3">
-        <v>13.81954133590801</v>
+        <v>86.48785579667801</v>
       </c>
       <c r="S3">
-        <v>0.2852932001070985</v>
+        <v>0.1178162953782585</v>
       </c>
       <c r="T3">
-        <v>0.2852932001070985</v>
+        <v>0.1178162953782585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>34.619235809332</v>
+        <v>13.34512433333333</v>
       </c>
       <c r="H4">
-        <v>34.619235809332</v>
+        <v>40.035373</v>
       </c>
       <c r="I4">
-        <v>0.5701105499332222</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="J4">
-        <v>0.5701105499332222</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.221803199990388</v>
+        <v>0.02498966666666666</v>
       </c>
       <c r="N4">
-        <v>0.221803199990388</v>
+        <v>0.07496899999999999</v>
       </c>
       <c r="O4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="P4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="Q4">
-        <v>7.678657283731667</v>
+        <v>0.3334902087152222</v>
       </c>
       <c r="R4">
-        <v>7.678657283731667</v>
+        <v>3.001411878437</v>
       </c>
       <c r="S4">
-        <v>0.1585196393826301</v>
+        <v>0.004088611345077763</v>
       </c>
       <c r="T4">
-        <v>0.1585196393826301</v>
+        <v>0.004088611345077764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.619235809332</v>
+        <v>26.15942766666667</v>
       </c>
       <c r="H5">
-        <v>34.619235809332</v>
+        <v>78.478283</v>
       </c>
       <c r="I5">
-        <v>0.5701105499332222</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="J5">
-        <v>0.5701105499332222</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.575904546607758</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N5">
-        <v>0.575904546607758</v>
+        <v>0.69472</v>
       </c>
       <c r="O5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q5">
-        <v>19.9373753026804</v>
+        <v>6.057825862862223</v>
       </c>
       <c r="R5">
-        <v>19.9373753026804</v>
+        <v>54.52043276576001</v>
       </c>
       <c r="S5">
-        <v>0.4115909105505921</v>
+        <v>0.07426933355801829</v>
       </c>
       <c r="T5">
-        <v>0.4115909105505921</v>
+        <v>0.07426933355801829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.10825254652735</v>
+        <v>26.15942766666667</v>
       </c>
       <c r="H6">
-        <v>2.10825254652735</v>
+        <v>78.478283</v>
       </c>
       <c r="I6">
-        <v>0.034718762289225</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="J6">
-        <v>0.034718762289225</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.221803199990388</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N6">
-        <v>0.221803199990388</v>
+        <v>2.160286</v>
       </c>
       <c r="O6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q6">
-        <v>0.4676171612076506</v>
+        <v>18.83728178543756</v>
       </c>
       <c r="R6">
-        <v>0.4676171612076506</v>
+        <v>169.535536068938</v>
       </c>
       <c r="S6">
-        <v>0.00965357627313483</v>
+        <v>0.2309462826962188</v>
       </c>
       <c r="T6">
-        <v>0.00965357627313483</v>
+        <v>0.2309462826962188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.15942766666667</v>
+      </c>
+      <c r="H7">
+        <v>78.478283</v>
+      </c>
+      <c r="I7">
+        <v>0.3132302087051685</v>
+      </c>
+      <c r="J7">
+        <v>0.3132302087051685</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q7">
+        <v>0.6537153775807778</v>
+      </c>
+      <c r="R7">
+        <v>5.883438398227</v>
+      </c>
+      <c r="S7">
+        <v>0.008014592450931415</v>
+      </c>
+      <c r="T7">
+        <v>0.008014592450931415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>40.356388</v>
+      </c>
+      <c r="H8">
+        <v>121.069164</v>
+      </c>
+      <c r="I8">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="J8">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.69472</v>
+      </c>
+      <c r="O8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q8">
+        <v>9.345463290453333</v>
+      </c>
+      <c r="R8">
+        <v>84.10916961408</v>
+      </c>
+      <c r="S8">
+        <v>0.1145759792515647</v>
+      </c>
+      <c r="T8">
+        <v>0.1145759792515647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.356388</v>
+      </c>
+      <c r="H9">
+        <v>121.069164</v>
+      </c>
+      <c r="I9">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="J9">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.160286</v>
+      </c>
+      <c r="O9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q9">
+        <v>29.06044666898934</v>
+      </c>
+      <c r="R9">
+        <v>261.544020020904</v>
+      </c>
+      <c r="S9">
+        <v>0.356282939764863</v>
+      </c>
+      <c r="T9">
+        <v>0.356282939764863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>40.356388</v>
+      </c>
+      <c r="H10">
+        <v>121.069164</v>
+      </c>
+      <c r="I10">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="J10">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q10">
+        <v>1.008492683990666</v>
+      </c>
+      <c r="R10">
+        <v>9.076434155915999</v>
+      </c>
+      <c r="S10">
+        <v>0.01236418497885558</v>
+      </c>
+      <c r="T10">
+        <v>0.01236418497885558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.10825254652735</v>
-      </c>
-      <c r="H7">
-        <v>2.10825254652735</v>
-      </c>
-      <c r="I7">
-        <v>0.034718762289225</v>
-      </c>
-      <c r="J7">
-        <v>0.034718762289225</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="N7">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="O7">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="P7">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="Q7">
-        <v>1.214152226942485</v>
-      </c>
-      <c r="R7">
-        <v>1.214152226942485</v>
-      </c>
-      <c r="S7">
-        <v>0.02506518601609017</v>
-      </c>
-      <c r="T7">
-        <v>0.02506518601609017</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.654081666666666</v>
+      </c>
+      <c r="H11">
+        <v>10.962245</v>
+      </c>
+      <c r="I11">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="J11">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.69472</v>
+      </c>
+      <c r="O11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q11">
+        <v>0.8461878718222221</v>
+      </c>
+      <c r="R11">
+        <v>7.6156908464</v>
+      </c>
+      <c r="S11">
+        <v>0.01037431757330519</v>
+      </c>
+      <c r="T11">
+        <v>0.01037431757330519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.654081666666666</v>
+      </c>
+      <c r="H12">
+        <v>10.962245</v>
+      </c>
+      <c r="I12">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="J12">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.160286</v>
+      </c>
+      <c r="O12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q12">
+        <v>2.631287155785555</v>
+      </c>
+      <c r="R12">
+        <v>23.68158440207</v>
+      </c>
+      <c r="S12">
+        <v>0.03225974927044735</v>
+      </c>
+      <c r="T12">
+        <v>0.03225974927044735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.654081666666666</v>
+      </c>
+      <c r="H13">
+        <v>10.962245</v>
+      </c>
+      <c r="I13">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="J13">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q13">
+        <v>0.09131428282277776</v>
+      </c>
+      <c r="R13">
+        <v>0.8218285454049998</v>
+      </c>
+      <c r="S13">
+        <v>0.001119518963255868</v>
+      </c>
+      <c r="T13">
+        <v>0.001119518963255868</v>
       </c>
     </row>
   </sheetData>
